--- a/版本记录.xlsx
+++ b/版本记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>渠道名</t>
   </si>
@@ -32,7 +32,7 @@
     <t>UC</t>
   </si>
   <si>
-    <t>9.2.4.4_7.6.3.1</t>
+    <t>9.3.5.6_7.6.3.9</t>
   </si>
   <si>
     <t>Vivo</t>
@@ -50,19 +50,28 @@
     <t>XiaoMi</t>
   </si>
   <si>
-    <t>3.2.2</t>
+    <t>3.2.8</t>
   </si>
   <si>
     <t>HuaWei</t>
   </si>
   <si>
-    <t>5.0.5.300</t>
+    <t>6.1.0.301</t>
   </si>
   <si>
     <t>Tencent</t>
   </si>
   <si>
-    <t>1.6.8_e278214</t>
+    <t>1.7.14_245ce36</t>
+  </si>
+  <si>
+    <t>MeiZu</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
   </si>
   <si>
     <t>更新</t>
@@ -96,6 +105,54 @@
   </si>
   <si>
     <t>腾讯渠道更新;</t>
+  </si>
+  <si>
+    <t>0.0.7_20210601</t>
+  </si>
+  <si>
+    <t>小米升级3.2.8</t>
+  </si>
+  <si>
+    <t>0.0.7_20210818</t>
+  </si>
+  <si>
+    <t>腾讯升级1.7.14</t>
+  </si>
+  <si>
+    <t>0.0.8_20210901</t>
+  </si>
+  <si>
+    <t>华为、VIVO、OPPO、魅族防沉迷返回统一</t>
+  </si>
+  <si>
+    <t>0.0.9_20210902</t>
+  </si>
+  <si>
+    <t>manifest融合支持自动替换android:name相同的meta-data</t>
+  </si>
+  <si>
+    <t>0.0.10_20211013</t>
+  </si>
+  <si>
+    <t>华为升级 6.1.0.301</t>
+  </si>
+  <si>
+    <t>0.0.11_20211016</t>
+  </si>
+  <si>
+    <t>VIVO 64位库添加</t>
+  </si>
+  <si>
+    <t>0.0.12_20211018</t>
+  </si>
+  <si>
+    <t>360 64位库添加</t>
+  </si>
+  <si>
+    <t>0.0.13_20211021</t>
+  </si>
+  <si>
+    <t>UC SDK升级</t>
   </si>
 </sst>
 </file>
@@ -104,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,6 +179,113 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,129 +298,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,37 +335,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,145 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,30 +526,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,13 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +583,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -554,21 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,145 +646,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1080,13 +1134,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="57.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
@@ -1184,10 +1238,38 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>28</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
         <v>16</v>
       </c>
     </row>
@@ -1201,13 +1283,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
@@ -1218,47 +1300,111 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
